--- a/data/trans_dic/P19C02-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19C02-Estudios-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.2504076418782775</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.3295465671969257</v>
+        <v>0.3295465671969258</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.1679705680932639</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1432964776370154</v>
+        <v>0.1433054458994262</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1295491125059784</v>
+        <v>0.1290713017400477</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1687514448889972</v>
+        <v>0.1688252232044654</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1947494975144934</v>
+        <v>0.1957201613132449</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1436174657612591</v>
+        <v>0.1446158724117356</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1864700613874443</v>
+        <v>0.1818082100179177</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2197542524583468</v>
+        <v>0.2174509142808492</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3024917762749296</v>
+        <v>0.3023665098601824</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1515758453701385</v>
+        <v>0.1488006803082139</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1684771051949398</v>
+        <v>0.169719963346146</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2099556955443166</v>
+        <v>0.2066646642051005</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2677645330060368</v>
+        <v>0.2676209412126279</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2011716861937835</v>
+        <v>0.2043790254537866</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1813287273107795</v>
+        <v>0.1836526071137985</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2445701791158929</v>
+        <v>0.2385102530876458</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2667783123875356</v>
+        <v>0.2677391129419254</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1921674036587891</v>
+        <v>0.1899439257739369</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2354482989461556</v>
+        <v>0.2345464969568293</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2875111180833158</v>
+        <v>0.2864773776705578</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3584026547544185</v>
+        <v>0.3553901445898887</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1859813777409432</v>
+        <v>0.1858872318399102</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2059678039382584</v>
+        <v>0.206522392798505</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2608471245414833</v>
+        <v>0.2571725046194681</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3120939290927863</v>
+        <v>0.3108491787441996</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.3942650975904564</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.5168450091175731</v>
+        <v>0.5168450091175733</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.322732597759037</v>
@@ -833,7 +833,7 @@
         <v>0.3724634697021071</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.5038733608116491</v>
+        <v>0.5038733608116492</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2814174809159101</v>
+        <v>0.2813098397036284</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3106211493419593</v>
+        <v>0.3056952149416285</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3271124464134831</v>
+        <v>0.3285483628061881</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4659325970809028</v>
+        <v>0.4666231995608029</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3115851257646962</v>
+        <v>0.3112403519531166</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3329369726310277</v>
+        <v>0.329919082021235</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3696616821219841</v>
+        <v>0.3710191424083612</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.4956898694689759</v>
+        <v>0.4969123302515687</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3058390418660209</v>
+        <v>0.3046905572300005</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.3266111019116658</v>
+        <v>0.3282466197759615</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.3542557087578808</v>
+        <v>0.3565398707895996</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.4877536978040442</v>
+        <v>0.4893413310644759</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3340783783993049</v>
+        <v>0.331570096634345</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3553709524203464</v>
+        <v>0.3574216427577205</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3726468010273665</v>
+        <v>0.3749118412034884</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5146387087718169</v>
+        <v>0.516755940177721</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3626005685791934</v>
+        <v>0.3618321662609753</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3834677836919069</v>
+        <v>0.3818285657121108</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4175846268625588</v>
+        <v>0.4193612328863472</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.5376534083808117</v>
+        <v>0.536325776545388</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3409047636918914</v>
+        <v>0.3407985637622135</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3614096650299967</v>
+        <v>0.3607096504341362</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3904121658746852</v>
+        <v>0.3888784712740296</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.5197435893256894</v>
+        <v>0.5217671063225225</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.4768562290216924</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.596132326904939</v>
+        <v>0.5961323269049391</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.4279354831895679</v>
@@ -957,7 +957,7 @@
         <v>0.4536448283199007</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.5690064657891756</v>
+        <v>0.5690064657891755</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.4141083965063963</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3510332838349172</v>
+        <v>0.3533759251199301</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3629425125125191</v>
+        <v>0.3652462985504845</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4344777315987426</v>
+        <v>0.4306690720314371</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5560267130121871</v>
+        <v>0.5558172308410402</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.382318634747755</v>
+        <v>0.3785130701074895</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3688051479098243</v>
+        <v>0.371652121653009</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.4075813802728731</v>
+        <v>0.4133467014647548</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.5355772969091009</v>
+        <v>0.5374883602634393</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3804210199162585</v>
+        <v>0.3778635564095625</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.3776022901601602</v>
+        <v>0.3812683735407101</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.4346900022379952</v>
+        <v>0.4331676866655284</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.555093957366782</v>
+        <v>0.5552893457993474</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4482820083620341</v>
+        <v>0.448887258817887</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4624101289187994</v>
+        <v>0.4641392407517373</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5234090764107878</v>
+        <v>0.5226932058847173</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6368805481096937</v>
+        <v>0.6391459433077568</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4844078045485642</v>
+        <v>0.4752049321608834</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4681612727523027</v>
+        <v>0.4676933075007448</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.5018739328589584</v>
+        <v>0.5035652909083533</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.6009267701928185</v>
+        <v>0.6000823572076821</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4492809132970056</v>
+        <v>0.4469593764322108</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.4498058625969386</v>
+        <v>0.4530163386252888</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.4993033489797984</v>
+        <v>0.4987693731791797</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.6096869925282991</v>
+        <v>0.6098149582840543</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2677525109718834</v>
+        <v>0.2661250448433759</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2775593417707934</v>
+        <v>0.2811156760885401</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3314072754750248</v>
+        <v>0.33030613685524</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4511806339880742</v>
+        <v>0.4515789907542994</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2746177180439938</v>
+        <v>0.2739993273582496</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2953315907353906</v>
+        <v>0.2961810720893196</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3556747534098781</v>
+        <v>0.353870169608831</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.4716069620254598</v>
+        <v>0.4712320009460235</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2751616476731209</v>
+        <v>0.2765391479678251</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2931466046739539</v>
+        <v>0.291949859462585</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3477022876461561</v>
+        <v>0.3483184431925909</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.4673927521045247</v>
+        <v>0.4680333068245526</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3047898823876637</v>
+        <v>0.3045224584705804</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3144772117391921</v>
+        <v>0.3145751389782563</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3685842331304623</v>
+        <v>0.3656668050253875</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4898180374683536</v>
+        <v>0.4915528040350741</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3077489944745603</v>
+        <v>0.3078592766871914</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3289315094934359</v>
+        <v>0.3294580311097358</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3912379662964011</v>
+        <v>0.3920861185083646</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.5003474720848543</v>
+        <v>0.5007308655279373</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3011198085807689</v>
+        <v>0.3014732337399176</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3187331853785635</v>
+        <v>0.3170477162984193</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3745093128529318</v>
+        <v>0.3741795665220978</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.4908369758367724</v>
+        <v>0.4919818698838823</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>98784</v>
+        <v>98790</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>100674</v>
+        <v>100303</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>77190</v>
+        <v>77224</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>104635</v>
+        <v>105156</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>137723</v>
+        <v>138681</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>210578</v>
+        <v>205313</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>140395</v>
+        <v>138924</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>237333</v>
+        <v>237234</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>249846</v>
+        <v>245272</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>321184</v>
+        <v>323554</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>230173</v>
+        <v>226565</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>353950</v>
+        <v>353760</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>138681</v>
+        <v>140892</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>140913</v>
+        <v>142719</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>111871</v>
+        <v>109099</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>143334</v>
+        <v>143851</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>184281</v>
+        <v>182148</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>265888</v>
+        <v>264870</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>183683</v>
+        <v>183023</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>281200</v>
+        <v>278836</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>306558</v>
+        <v>306402</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>392656</v>
+        <v>393714</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>285965</v>
+        <v>281936</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>412548</v>
+        <v>410903</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>369909</v>
+        <v>369767</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>524107</v>
+        <v>515795</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>554981</v>
+        <v>557417</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>999684</v>
+        <v>1001166</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>426955</v>
+        <v>426482</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>529775</v>
+        <v>524973</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>631648</v>
+        <v>633967</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1046199</v>
+        <v>1048779</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>821091</v>
+        <v>818007</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1070795</v>
+        <v>1076157</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1206355</v>
+        <v>1214134</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>2075952</v>
+        <v>2082709</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>439129</v>
+        <v>435832</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>599612</v>
+        <v>603073</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>632234</v>
+        <v>636077</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>1104186</v>
+        <v>1108729</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>496860</v>
+        <v>495807</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>610180</v>
+        <v>607572</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>713535</v>
+        <v>716571</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>1134767</v>
+        <v>1131965</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>915232</v>
+        <v>914947</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1184882</v>
+        <v>1182587</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>1329480</v>
+        <v>1324257</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>2212106</v>
+        <v>2220718</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>158291</v>
+        <v>159347</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>160469</v>
+        <v>161488</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>216910</v>
+        <v>215009</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>390772</v>
+        <v>390624</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>156285</v>
+        <v>154730</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>156271</v>
+        <v>157478</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>207182</v>
+        <v>210112</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>387979</v>
+        <v>389364</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>327053</v>
+        <v>324854</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>326950</v>
+        <v>330124</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>437978</v>
+        <v>436444</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>792233</v>
+        <v>792512</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>202143</v>
+        <v>202416</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>204447</v>
+        <v>205212</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>261309</v>
+        <v>260951</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>447595</v>
+        <v>449187</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>198018</v>
+        <v>194256</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>198371</v>
+        <v>198172</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>255113</v>
+        <v>255972</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>435319</v>
+        <v>434707</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>386252</v>
+        <v>384256</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>389468</v>
+        <v>392247</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>503080</v>
+        <v>502542</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>870149</v>
+        <v>870332</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>657263</v>
+        <v>653268</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>806735</v>
+        <v>817072</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>879313</v>
+        <v>876391</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1527530</v>
+        <v>1528878</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>751906</v>
+        <v>750213</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>928588</v>
+        <v>931259</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1015776</v>
+        <v>1010622</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1707027</v>
+        <v>1705670</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1428846</v>
+        <v>1435999</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1773759</v>
+        <v>1766517</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1915555</v>
+        <v>1918950</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>3274191</v>
+        <v>3278679</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>748181</v>
+        <v>747524</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>914038</v>
+        <v>914323</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>977953</v>
+        <v>970212</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>1658342</v>
+        <v>1664215</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>842620</v>
+        <v>842921</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1034234</v>
+        <v>1035890</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>1117342</v>
+        <v>1119764</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1811056</v>
+        <v>1812444</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1563640</v>
+        <v>1565475</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1928577</v>
+        <v>1918378</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>2063240</v>
+        <v>2061423</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>3438423</v>
+        <v>3446444</v>
       </c>
     </row>
     <row r="20">
